--- a/biology/Zoologie/Eugène_Desmarest/Eugène_Desmarest.xlsx
+++ b/biology/Zoologie/Eugène_Desmarest/Eugène_Desmarest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Desmarest</t>
+          <t>Eugène_Desmarest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Anselme Sébastien Léon Desmarest (1816-1890) est un entomologiste français, fils de Anselme Gaëtan Desmarest (1784-1838).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Desmarest</t>
+          <t>Eugène_Desmarest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est crédité de 7 travaux et 12 publications[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est crédité de 7 travaux et 12 publications.
 Eugène Desmarest a collaboré à l'Encyclopédie d'histoire naturelle ou Traité complet de cette science d'après les travaux des naturalistes les plus éminents, dirigée par Jean-Charles Chenu.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Desmarest</t>
+          <t>Eugène_Desmarest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Genres attribuables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acentrus (Curculioninae) 1839</t>
         </is>
